--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1099958876508455</v>
+        <v>-0.1046505537244214</v>
       </c>
       <c r="D2">
-        <v>0.9124257815577534</v>
+        <v>0.9176013430670817</v>
       </c>
       <c r="E2">
         <v>0.8754315462469306</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4283441396087481</v>
+        <v>-0.4316695768059721</v>
       </c>
       <c r="D3">
-        <v>0.6684555292767138</v>
+        <v>0.6701825054794959</v>
       </c>
       <c r="E3">
         <v>0.8754315462469306</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6055679676800845</v>
+        <v>-0.9368278429612501</v>
       </c>
       <c r="D4">
-        <v>0.5448835239522776</v>
+        <v>0.3590182584847943</v>
       </c>
       <c r="E4">
         <v>0.8754315462469306</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.15520086986197</v>
+        <v>-0.989650222052978</v>
       </c>
       <c r="D5">
-        <v>0.2481725509716881</v>
+        <v>0.3331055904657108</v>
       </c>
       <c r="E5">
         <v>0.8754315462469306</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2327658650564796</v>
+        <v>-0.1831442341051032</v>
       </c>
       <c r="D6">
-        <v>0.8159715910035192</v>
+        <v>0.8563622053368978</v>
       </c>
       <c r="E6">
         <v>0.8821074089839004</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.5373311279365208</v>
+        <v>-0.5494661824306761</v>
       </c>
       <c r="D7">
-        <v>0.5911101097811877</v>
+        <v>0.5882203648072881</v>
       </c>
       <c r="E7">
         <v>0.8821074089839004</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.295095817888969</v>
+        <v>-1.108290756099964</v>
       </c>
       <c r="D8">
-        <v>0.1954652268626305</v>
+        <v>0.2797060300312428</v>
       </c>
       <c r="E8">
         <v>0.8821074089839004</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.3586417758714643</v>
+        <v>-0.4038821969541538</v>
       </c>
       <c r="D9">
-        <v>0.7199081797066627</v>
+        <v>0.6901984459789681</v>
       </c>
       <c r="E9">
         <v>0.8949365483431703</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.84011824077297</v>
+        <v>-0.6409403460663854</v>
       </c>
       <c r="D10">
-        <v>0.4009617067604534</v>
+        <v>0.5281822797995188</v>
       </c>
       <c r="E10">
         <v>0.8949365483431703</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.4817745996747207</v>
+        <v>-0.4510301530130711</v>
       </c>
       <c r="D11">
-        <v>0.6300288637647151</v>
+        <v>0.6563820532619253</v>
       </c>
       <c r="E11">
         <v>0.9163460667748187</v>
